--- a/BackTest/2020-01-20 BackTest EOS.xlsx
+++ b/BackTest/2020-01-20 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-111200.90822967</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-117973.23142967</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-117282.60952967</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-118783.85652927</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-121708.56692927</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-113631.18612927</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-106698.78212927</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-100100.92042927</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-82488.32215197003</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-107627.72745197</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-112994.36205197</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-114346.02385197</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-114343.82385197</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-115364.19925197</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-114062.23455197</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-116833.9601451</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-114781.6063451001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-114984.7072451001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-116483.4658451001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-116481.4658451001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-117148.3905451001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-117129.3051451001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-116684.9390451001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-119021.7009451001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-122967.1563028901</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-130833.9162028901</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-118862.2654028901</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-117700.0410028901</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-121311.34150289</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-139089.3586041601</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-144306.20290416</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-142961.19170416</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-144047.0045041601</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-152958.9936041601</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-131353.3881041601</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-124283.52280416</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-119498.42220416</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-124252.59900416</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-124252.59900416</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-128000.28990416</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-128000.28990416</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-131286.4893041601</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-129264.3798041601</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-134632.2926041601</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-137293.3565041601</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-136075.5699041601</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-135350.2973041601</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-131867.5298041601</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-134347.4866041601</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-131933.7483041601</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-134688.7361041601</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-141035.7712041601</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-140106.0041041601</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-142522.9862041601</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-135926.9663893001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-141651.8622893001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-145940.6151075901</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-148379.0095075901</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-149796.9824075901</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-148327.5684075901</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-149001.0210075901</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-150559.8152075901</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-138682.7130075901</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-140342.6072075901</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-140440.4009075901</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-140982.2098075901</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-140923.7121075901</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-140717.4633075901</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-140423.9644075901</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-140845.0315075901</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-140845.0315075901</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-140494.5315075901</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-139576.0315075901</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-140782.4920075901</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-140659.7497075901</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-141270.8819075901</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-141820.6926075901</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-142565.8993408501</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-142511.8022408501</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-143102.8978408501</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-143352.8978408501</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-143288.8978408501</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-142383.8182408501</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-143721.2735408501</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-143721.2735408501</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-143772.8397408501</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-143772.8397408501</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-146697.6771408501</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-146697.6771408501</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-146360.6771408501</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-143408.5167408501</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-143433.6400408501</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-144058.4052408501</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-144295.9052408501</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-147506.2117408501</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-147475.1707408501</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-147707.7007408501</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-148154.7344408501</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-149001.9009408501</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-176655.1511408501</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-176655.1511408501</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-176897.1144408501</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-176783.6823408501</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-181477.0868408501</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-180094.4625525301</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-180094.4625525301</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-165072.21265253</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-165727.81125253</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-165487.34415253</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-164626.07505253</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-164626.07505253</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-164995.66135253</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-165027.25995253</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-165084.79305253</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-165055.46905253</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-165055.26905253</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-164283.10655253</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-164282.90655253</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-164448.88727763</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-164467.59057763</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-164467.59057763</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-164467.39057763</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-164467.19057763</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-164464.4459776299</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-163163.71687763</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-159523.2492776299</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-159525.2492776299</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-159799.4992776299</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-162048.38057763</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-161817.40507763</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-161671.29917763</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-164198.27897763</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-164201.98617763</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-165893.76257763</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-167173.62727763</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-167169.62727763</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-167169.62727763</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-167163.17997763</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-159583.56607763</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-156055.68377763</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-153436.01507763</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-154101.84197763</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-154071.84197763</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-154288.37197763</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-153877.67870463</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-153973.33240463</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-154326.89610463</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-154750.36940463</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-156235.44380463</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-157193.75930463</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-157992.84750463</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-157990.12430463</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-157991.96430463</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-157974.76210463</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-157973.76210463</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-157973.76210463</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-158381.63510463</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-158441.02790463</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-158301.30620463</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-158288.56230463</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-160703.47960463</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-160777.17010463</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-160094.00370463</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-159362.98960463</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-160512.95400463</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-160432.60330463</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-159941.55830463</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-160060.4134046299</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-159449.54290463</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-159355.4218796999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-159355.4218796999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-159516.4218796999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-158602.7575796999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-158436.9474796999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-158684.0463246699</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-159279.5229246699</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-159879.5229246699</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-160820.4299246699</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-162076.4299246699</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-161567.3954418399</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-161803.0904418399</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-161503.0904418399</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-164582.1159418399</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-164695.7509418399</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-166473.37489599</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-166473.37489599</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-168880.96024184</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-167761.20664184</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-167761.20664184</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-167462.20664184</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-167462.20664184</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-167462.20664184</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-167985.76374184</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-168658.34646138</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-170423.27686138</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-170395.98166138</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-170412.86166138</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-170411.86166138</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-170651.47528563</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-170534.17378563</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-171961.26618563</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-172144.26618563</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-172144.26618563</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-172435.80948563</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-175385.98538563</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-176946.31928563</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-176493.65998563</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-179790.59938563</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-180531.3607856299</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-180231.02078563</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-180472.9507856299</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-180272.9499856299</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-180749.7246856299</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-180680.4395993499</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-180980.4395993499</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-180579.8021993499</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-180424.1311993499</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-180419.52360889</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-179790.12374249</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-179790.12374249</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-181389.00354249</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-185155.73404249</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-182328.48594249</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-183112.35634249</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-183131.96744249</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-182580.61954249</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-184825.35974249</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-184825.35974249</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-186874.21974249</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-189785.88984249</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-189785.88984249</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-190453.91404249</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-176596.42689993</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-184917.50739993</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-185217.83875073</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-185230.23905073</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-185230.23905073</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-186294.97635073</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-134645.76750242</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-127495.56098106</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-120377.80788106</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-115571.66448106</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-113283.79178106</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-116427.39168106</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-110956.01038106</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-100742.93888106</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-104656.95803351</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-108002.85983649</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-110606.09650229</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-104986.07363252</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-105879.38243252</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-104280.10685382</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-96287.57245381997</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-97336.83864317997</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-95584.06372982997</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-95608.82882982997</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-95121.45532982997</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-101963.38362983</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-107790.25172983</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-99028.74721961997</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-98161.68294662997</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-93899.69654662997</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-93019.94904662998</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-93556.45064662998</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-90381.18074662998</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-91794.38854662998</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-93603.25345925998</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-122143.74012683</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-125512.62352683</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-136827.85681232</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-138094.630331</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-141858.371531</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-144631.896831</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-152197.214431</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-152024.535631</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-152467.924631</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-161893.675431</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-159402.449931</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-146331.588231</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-139699.598131</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-143346.810431</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-144824.602831</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-143023.26917114</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-147229.81827114</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-144595.00187114</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-144595.00187114</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-145541.02797114</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-147582.39337114</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-146768.55317114</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-146203.19967114</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-145538.32347114</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-149582.45927114</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-141222.57077114</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-140840.36337114</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-145108.40405987</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-141405.70995987</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-141405.70995987</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-142772.04195987</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-142149.29426892</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-143579.05876892</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-144535.93556892</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-143527.14116358</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-142892.99936358</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-143979.46236358</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-143979.46236358</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-147643.16466358</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-146931.1202635799</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-148905.33329519</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-152106.1530951899</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-153056.30589519</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-154866.2100951899</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-154247.56448441</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-155928.8197844099</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-155896.09558441</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-155919.21088441</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-155379.01008441</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-155379.01008441</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-148689.40488441</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-148668.40158441</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-148288.11568441</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-149438.06008441</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-148789.58228441</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-148789.58228441</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-148953.94098441</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-149057.99828441</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-149057.99828441</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-149378.93418441</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-149378.93418441</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-141325.25558441</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-142494.84618441</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-143172.18238441</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-143164.09078441</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-143470.7915844099</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-143470.7915844099</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-143470.7915844099</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-143382.8398844099</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-142105.7385844099</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-142618.6386844099</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-142868.4906844099</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-139659.7397844099</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-138848.6288844099</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-138723.9595841899</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-138733.8470841899</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-138733.8470841899</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-138739.0010841899</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-138706.7607841899</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-140107.3698841899</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-140107.3698841899</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-141650.8924841899</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-138918.8665361799</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-138918.8665361799</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-129109.5362730499</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-128819.5362730499</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-128819.5362730499</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-124304.9240730499</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-124231.9629730499</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-124231.9629730499</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-124068.5802299399</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-124079.1729299399</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-122811.8072299399</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-121185.5563299399</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-122223.0177299399</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-121655.7600299399</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-124267.5648299399</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-123319.6550299399</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-124156.4508299399</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-125291.9014299399</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-125255.7662299399</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-124940.1567041799</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-127891.4509041799</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-127798.5739041799</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-127805.3476041799</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-127805.3476041799</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-128122.2233041799</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-127690.8963041799</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-127202.9258041799</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-127202.9258041799</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-127202.9258041799</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-127452.6114041799</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-127452.6114041799</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-130304.8111443599</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-131176.96964436</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-136606.14564436</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-137904.56684436</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-137904.56684436</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-137723.36684436</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-139551.10273652</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-139551.10273652</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-136335.58613652</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-135261.75703652</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-137214.60643652</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-144235.64293652</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-149537.14533652</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-150443.35293652</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-149207.0726365199</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-150338.5761365199</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-148913.6412365199</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-149294.8182365199</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-149108.8113365199</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-150633.5629365199</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-150143.8138365199</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-149571.9138365199</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-143978.2540778399</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-144029.9054778399</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-144014.9070778399</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-143474.1888514499</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-143474.1888514499</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-144465.5923682299</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-144465.5923682299</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-144464.3023682299</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-145295.8178682299</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-145269.5312682299</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-145272.5312682299</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-144407.77536823</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-142667.4118682299</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-142451.80916823</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-142451.80916823</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-144742.4431682299</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-143316.66446823</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-143316.66446823</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-143589.74416823</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-138106.71106823</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-138147.85996823</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-138128.04866823</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-138818.72026823</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-139803.6043682299</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-139803.6043682299</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-140455.7425682299</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-140254.2795682299</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-150485.3291682299</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-150340.3641682299</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-149019.8875359799</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-149020.1575359799</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-145890.1640359799</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-134007.0874359799</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-135003.0706359799</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-133003.0706359799</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-132998.4534359799</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-133836.2625359799</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-134152.9558359799</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-129283.7806359799</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-128282.7623359799</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-127988.2601359799</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-129244.0281359799</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-114644.7933359799</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-118319.3392359799</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-122122.6561359799</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-125134.9843359799</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-125134.9843359799</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-125095.6443359799</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-125650.8943359799</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-125547.0311359799</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-125631.1978359799</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-125196.2137359799</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-124332.3467359799</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-123543.7116632599</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-123543.7116632599</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-123543.7116632599</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-123384.4981632599</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-121929.9458632599</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-121075.3638632599</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-118959.2920632599</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-118959.2920632599</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-119114.6841632599</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-119209.3721632599</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-119608.6869632599</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-119608.6869632599</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-119608.6869632599</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-121139.9865632599</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-122348.5507632599</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-122668.3500632599</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-123178.0592632599</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-122225.7554561199</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-122225.7554561199</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-130405.2221561199</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-130276.9067650499</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-130282.2916650499</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-130282.2916650499</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-130282.2916650499</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-130266.0409650499</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-129138.6430650499</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-129325.1463650499</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-129246.1771650499</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-129253.4201650499</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-129603.5576650499</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-120128.3553650499</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-120128.3553650499</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-120046.5103650499</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-120046.5103650499</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-120046.5103650499</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-120134.7440650499</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-120144.5463650499</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-120144.5463650499</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-120144.5463650499</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-120144.5463650499</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-120545.9287650499</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-120545.9287650499</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-120720.2755650499</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-120720.2755650499</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-121917.6970650499</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-121132.1616650499</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-119792.7079650499</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-121865.1841650499</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-121033.7344650499</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-121033.7344650499</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-123718.9443650499</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-123718.9443650499</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-123718.9443650499</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-125171.1633650499</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-126889.2941650499</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-122775.1364650499</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-122942.2699650499</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-122872.2089650499</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-122946.8581650499</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-124321.4716650499</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-124321.4716650499</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-120228.0810650499</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-120949.0972650499</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-123334.0981650499</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-123437.8981650499</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-123437.8981650499</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-123437.8981650499</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-123777.0044650499</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-119873.1670650499</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-120273.1670650499</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-120272.0093650499</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-120372.5852650499</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-125875.6949650499</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-123908.5701650499</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-123916.1801650499</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-123616.1801650499</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-125298.5134650499</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-125709.4020650499</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-112259.3352650499</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-116169.6484650499</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-107314.5359650499</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-107934.7160650499</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-110216.9115650499</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-110216.9115650499</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-110270.8497650499</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-115930.4095650499</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-115930.4095650499</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-119144.7856650499</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-119676.4587650499</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-119676.4587650499</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-119676.4587650499</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-118054.4742650499</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-118054.4742650499</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-118568.6050650499</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-116361.4430650499</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-116089.9430650499</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-116089.9430650499</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-116114.8090650499</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-116214.6008650499</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-116214.6008650499</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-115552.2726650499</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-115552.2726650499</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-113755.5039650499</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-113755.5039650499</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-113755.5039650499</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-114921.6024650499</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-114921.6024650499</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-113479.9714497099</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-113532.6305497099</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-113531.7759497099</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-113530.7759497099</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-113537.7759497099</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-109670.7717497099</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-109670.7717497099</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-113939.8848497099</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-110061.3152497099</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-106014.7481497099</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-106014.7481497099</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-106832.0661497099</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-106832.0661497099</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-105781.5661497099</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-105781.5661497099</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-105414.1571497099</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-105414.1571497099</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-105238.0379716299</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-105369.0037716299</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-104377.4357720899</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-109770.6427720899</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-109770.6427720899</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-109634.9268720899</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-109616.3101720899</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-109858.7168720899</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-110258.2090720899</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-110820.2090720899</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-110820.0444720899</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-112689.5549720899</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-112689.5549720899</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-112648.1419720899</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-112082.8005720899</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-113717.6703720899</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-113697.6703720899</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-113751.4934720899</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-113751.4934720899</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-113419.9842720899</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-113862.3802720899</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-113781.8942720899</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-112801.0684720899</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-104327.2850720899</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-105071.8516720899</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-104693.2030720899</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-96692.05287208987</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-95392.41663359987</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-96269.67863359988</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-96269.67863359988</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-96385.69313359988</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-96343.17183359989</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-96756.61563359988</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-96756.61563359988</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-99373.03433359988</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-93293.98773359988</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-93490.09135177988</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-93776.31230819988</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-93771.89460819987</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-93771.89460819987</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-94459.51250819987</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-94443.73750819988</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-94320.67690819988</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-93897.56810819988</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-95640.47340819988</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-95640.47340819988</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-96558.32870819987</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-96558.32870819987</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-96474.06527468987</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-97808.32827468988</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-97807.32827468988</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-98501.32827468988</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-98501.32827468988</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-98245.13787468987</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-99142.51187468987</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-99890.05917468987</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-99785.45737468987</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-99785.45737468987</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-99785.45737468987</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-99785.45737468987</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-99746.65344864987</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-99746.65344864987</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-101159.6595486499</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-101186.7558486499</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-100536.7680486499</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-102716.3690486499</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-102284.7318486499</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-102388.9318486499</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-102688.9318486499</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>-101994.1868486499</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>-102059.5528486499</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>-106192.3856486499</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-107777.3553486499</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>-107829.2253486499</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-107405.6297486499</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-107405.6297486499</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-107183.3429486499</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-107329.1723486499</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-103954.5475486499</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-104275.9675486499</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-104275.9675486499</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-104045.1013486499</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-103788.2387486499</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-103734.3057486499</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-101106.3113486499</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-95596.61958713987</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-101624.5417871399</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-101624.5418256299</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-108717.3084256299</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-102177.3473256299</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-103138.7569256299</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-105779.6845256299</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-105025.7245256299</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-105640.3431122399</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-106009.9373122399</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-106095.8077122399</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-108830.8184122399</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-108718.5557122399</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-107233.6419122399</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-107233.6419122399</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-114196.2284122399</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-117339.2213122399</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-123364.4657122399</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-134434.9800122399</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-158786.9045122399</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-159889.8260122398</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-159147.3131122398</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-169705.6485122399</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-169705.6485122399</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-168524.8214122399</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-168524.8214122399</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-173848.8556122399</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-176281.9209122398</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-176281.6209122399</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-176679.2220122399</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-178391.6844122398</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-178279.7579385799</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-177200.2823385799</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-177200.2823385799</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-176960.9794385798</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-176381.2271385799</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-177068.2271385799</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-177068.2271385799</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-177067.2271385799</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-168409.9241385799</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-168597.4235385799</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-167577.7934385799</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-168669.8511385799</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-168669.8511385799</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-168788.4813385799</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-168788.4813385799</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-169491.2437385799</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-169271.2177385799</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-168536.9978385799</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-167431.5384385799</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-167114.2773385799</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-168425.2991385799</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-168417.2991385799</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-168454.7630385799</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-168450.0907385799</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-169114.7895385799</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-169114.7895385799</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-169113.7895385799</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-169113.9895385799</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-178581.5831385799</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-176173.2470385799</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-176439.2218385799</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-176439.2218385799</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-190184.6258385799</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-192330.0799385799</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-191725.8719385799</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-193726.6399385799</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>-193726.6399385799</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>-194518.9990385799</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>-194518.9990385799</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-195068.2064385799</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>-196743.8091385799</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>-252680.8997385799</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-299467.0451385799</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-375834.8452385799</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-375834.8452385799</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-392138.2914301799</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-445566.4584301799</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34507,169 +34507,149 @@
         <v>-532327.3210970899</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>4031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>4005</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>4033</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>4040</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>4001</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>37450.8863</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>-494876.4347970899</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>4033</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>4036</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>4045</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>4028</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>18361.4469</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>-476514.9878970899</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>4035</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>4009</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>4037</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>4005</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>8547.53201474</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>-485062.5199118299</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>4005</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>4012</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>4032</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>3987</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>37974.7369</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>-447087.7830118299</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>4009</v>
+      </c>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1034" t="inlineStr"/>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>4005</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>4033</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>4040</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>4001</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>37450.8863</v>
-      </c>
-      <c r="G1035" t="n">
-        <v>-494876.4347970899</v>
-      </c>
-      <c r="H1035" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>4005</v>
-      </c>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1035" t="inlineStr"/>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>4033</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>4036</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>4045</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>4028</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>18361.4469</v>
-      </c>
-      <c r="G1036" t="n">
-        <v>-476514.9878970899</v>
-      </c>
-      <c r="H1036" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>4033</v>
-      </c>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1036" t="inlineStr"/>
-    </row>
-    <row r="1037">
-      <c r="A1037" s="1" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>4035</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>4009</v>
-      </c>
-      <c r="D1037" t="n">
-        <v>4037</v>
-      </c>
-      <c r="E1037" t="n">
-        <v>4005</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>8547.53201474</v>
-      </c>
-      <c r="G1037" t="n">
-        <v>-485062.5199118299</v>
-      </c>
-      <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>4005</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>4012</v>
-      </c>
-      <c r="D1038" t="n">
-        <v>4032</v>
-      </c>
-      <c r="E1038" t="n">
-        <v>3987</v>
-      </c>
-      <c r="F1038" t="n">
-        <v>37974.7369</v>
-      </c>
-      <c r="G1038" t="n">
-        <v>-447087.7830118299</v>
-      </c>
-      <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34698,9 +34678,11 @@
         <v>-443992.4966118299</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>4012</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -34735,9 +34717,11 @@
         <v>-428291.3694118299</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>4035</v>
+      </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
@@ -34772,9 +34756,11 @@
         <v>-425184.0889118299</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>4064</v>
+      </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -34809,9 +34795,11 @@
         <v>-431656.9517897399</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>4074</v>
+      </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -34846,9 +34834,11 @@
         <v>-423564.5150897399</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>4058</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -34883,7 +34873,7 @@
         <v>-422666.0386897399</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1044" t="n">
         <v>4070</v>
@@ -34922,7 +34912,7 @@
         <v>-424313.31748974</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1045" t="n">
         <v>4072</v>
@@ -34961,7 +34951,7 @@
         <v>-419118.15978974</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1046" t="n">
         <v>4070</v>
@@ -35000,7 +34990,7 @@
         <v>-419316.80878974</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1047" t="n">
         <v>4072</v>
@@ -35039,7 +35029,7 @@
         <v>-423592.17308974</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1048" t="n">
         <v>4066</v>
@@ -35078,7 +35068,7 @@
         <v>-421744.29538974</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1049" t="n">
         <v>4065</v>
@@ -35117,7 +35107,7 @@
         <v>-418560.49558974</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1050" t="n">
         <v>4066</v>
@@ -35156,11 +35146,9 @@
         <v>-418839.04858974</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>4075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35195,11 +35183,9 @@
         <v>-414977.18888974</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>4072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -36714,7 +36700,7 @@
         <v>-455962.3397099799</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1093" t="n">
         <v>4061</v>
@@ -36753,7 +36739,7 @@
         <v>-454303.5849645999</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1094" t="n">
         <v>4072</v>
@@ -36792,7 +36778,7 @@
         <v>-454659.8878645999</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1095" t="n">
         <v>4077</v>
@@ -36831,7 +36817,7 @@
         <v>-435953.8267645999</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1096" t="n">
         <v>4071</v>
@@ -36870,11 +36856,9 @@
         <v>-437178.6484645999</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>4079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
@@ -36983,9 +36967,11 @@
         <v>-440745.8051645999</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>4047</v>
+      </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
@@ -37020,9 +37006,11 @@
         <v>-445263.4889645999</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>4058</v>
+      </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
@@ -37057,7 +37045,7 @@
         <v>-432810.3239645999</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1102" t="n">
         <v>4039</v>
@@ -37096,7 +37084,7 @@
         <v>-425997.2951327199</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1103" t="n">
         <v>4048</v>
@@ -37135,7 +37123,7 @@
         <v>-439825.1150327199</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1104" t="n">
         <v>4064</v>
@@ -37174,7 +37162,7 @@
         <v>-443304.2415634499</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1105" t="n">
         <v>4053</v>
@@ -37213,7 +37201,7 @@
         <v>-436854.5867634499</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1106" t="n">
         <v>4035</v>
@@ -37252,7 +37240,7 @@
         <v>-433601.7936634499</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1107" t="n">
         <v>4040</v>
@@ -37291,7 +37279,7 @@
         <v>-437131.0328634499</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1108" t="n">
         <v>4043</v>
@@ -37330,7 +37318,7 @@
         <v>-432140.2863634499</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1109" t="n">
         <v>4037</v>
@@ -37369,7 +37357,7 @@
         <v>-427928.3890634499</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1110" t="n">
         <v>4050</v>
@@ -37408,7 +37396,7 @@
         <v>-429138.1102634498</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1111" t="n">
         <v>4060</v>
@@ -37447,7 +37435,7 @@
         <v>-430178.0444576598</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1112" t="n">
         <v>4058</v>
@@ -37486,7 +37474,7 @@
         <v>-428157.2905734798</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1113" t="n">
         <v>4054</v>
@@ -37525,7 +37513,7 @@
         <v>-429624.8075734798</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1114" t="n">
         <v>4066</v>
@@ -37564,7 +37552,7 @@
         <v>-426266.6271734798</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1115" t="n">
         <v>4061</v>
@@ -37603,7 +37591,7 @@
         <v>-425787.7479734798</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1116" t="n">
         <v>4064</v>
@@ -37642,7 +37630,7 @@
         <v>-427983.3875734798</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1117" t="n">
         <v>4071</v>
@@ -37681,7 +37669,7 @@
         <v>-423473.6636734798</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1118" t="n">
         <v>4068</v>
@@ -37720,11 +37708,9 @@
         <v>-420059.5715734798</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>4077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37759,11 +37745,9 @@
         <v>-417037.1371734798</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>4079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
@@ -37798,11 +37782,9 @@
         <v>-420000.1440509198</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1121" t="n">
-        <v>4081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
@@ -37837,11 +37819,9 @@
         <v>-425411.3836509198</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1122" t="n">
-        <v>4076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
@@ -37876,11 +37856,9 @@
         <v>-420130.7228509198</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1123" t="n">
-        <v>4061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
@@ -37915,11 +37893,9 @@
         <v>-419897.4187509198</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1124" t="n">
-        <v>4065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
@@ -37954,11 +37930,9 @@
         <v>-419897.4187509198</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1125" t="n">
-        <v>4076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
@@ -37993,11 +37967,9 @@
         <v>-416733.8723509198</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1126" t="n">
-        <v>4076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
@@ -38032,11 +38004,9 @@
         <v>-417461.1120636397</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1127" t="n">
-        <v>4080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
@@ -38071,11 +38041,9 @@
         <v>-417772.8524636397</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1128" t="n">
-        <v>4078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38110,11 +38078,9 @@
         <v>-420649.1358636398</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>4070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
@@ -38149,11 +38115,9 @@
         <v>-423548.6964636398</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1130" t="n">
-        <v>4065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
@@ -38188,11 +38152,9 @@
         <v>-422086.9481458698</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>4057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -38227,7 +38189,7 @@
         <v>-422777.7499458698</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1132" t="n">
         <v>4063</v>
@@ -38266,7 +38228,7 @@
         <v>-428458.7811458698</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1133" t="n">
         <v>4055</v>
@@ -38305,7 +38267,7 @@
         <v>-431799.3498240598</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1134" t="n">
         <v>4050</v>
@@ -38344,7 +38306,7 @@
         <v>-427820.9530240598</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1135" t="n">
         <v>4043</v>
@@ -38383,7 +38345,7 @@
         <v>-427596.1337240599</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1136" t="n">
         <v>4055</v>
@@ -38422,7 +38384,7 @@
         <v>-429671.1971240598</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1137" t="n">
         <v>4063</v>
@@ -38461,11 +38423,9 @@
         <v>-429671.1971240598</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>4062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38500,11 +38460,9 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>4062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
@@ -38539,7 +38497,7 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1140" t="n">
         <v>4060</v>
@@ -38578,7 +38536,7 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1141" t="n">
         <v>4060</v>
@@ -38617,7 +38575,7 @@
         <v>-432950.9462565699</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1142" t="n">
         <v>4060</v>
@@ -38656,7 +38614,7 @@
         <v>-432824.0274565699</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1143" t="n">
         <v>4055</v>
@@ -38695,7 +38653,7 @@
         <v>-433392.2474565699</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1144" t="n">
         <v>4062</v>
@@ -38734,7 +38692,7 @@
         <v>-432391.8726565699</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1145" t="n">
         <v>4054</v>
@@ -38773,7 +38731,7 @@
         <v>-432186.6553565699</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1146" t="n">
         <v>4062</v>
@@ -38812,7 +38770,7 @@
         <v>-430637.6843565698</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1147" t="n">
         <v>4066</v>
@@ -38851,7 +38809,7 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1148" t="n">
         <v>4081</v>
@@ -38890,7 +38848,7 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1149" t="n">
         <v>4075</v>
@@ -38929,7 +38887,7 @@
         <v>-432684.1271946598</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1150" t="n">
         <v>4075</v>
@@ -38968,7 +38926,7 @@
         <v>-431029.3245946598</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1151" t="n">
         <v>4070</v>
@@ -39007,7 +38965,7 @@
         <v>-432210.1078946599</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1152" t="n">
         <v>4078</v>
@@ -39046,7 +39004,7 @@
         <v>-426841.6221946598</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1153" t="n">
         <v>4057</v>
@@ -39085,7 +39043,7 @@
         <v>-426942.7708946599</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1154" t="n">
         <v>4063</v>
@@ -39124,7 +39082,7 @@
         <v>-426942.7708946599</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1155" t="n">
         <v>4059</v>
@@ -39163,7 +39121,7 @@
         <v>-426052.8457946599</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1156" t="n">
         <v>4059</v>
@@ -39202,7 +39160,7 @@
         <v>-426052.8457946599</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1157" t="n">
         <v>4063</v>
@@ -39241,7 +39199,7 @@
         <v>-424040.9203946599</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1158" t="n">
         <v>4063</v>
@@ -39280,7 +39238,7 @@
         <v>-426043.2008946599</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1159" t="n">
         <v>4081</v>
@@ -39297,6 +39255,6 @@
       <c r="M1159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest EOS.xlsx
+++ b/BackTest/2020-01-20 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-111200.90822967</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-117973.23142967</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-117282.60952967</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-118783.85652927</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-121708.56692927</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-113631.18612927</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-106698.78212927</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-100100.92042927</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-82488.32215197003</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-107627.72745197</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-112994.36205197</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-114346.02385197</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-114343.82385197</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-115364.19925197</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-114062.23455197</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-116483.4658451001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-116481.4658451001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-117148.3905451001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-117129.3051451001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-116684.9390451001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-119021.7009451001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-122967.1563028901</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-130833.9162028901</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-118862.2654028901</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-117700.0410028901</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-121311.34150289</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-139089.3586041601</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-140106.0041041601</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-142522.9862041601</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-135926.9663893001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-145940.6151075901</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-148379.0095075901</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-149796.9824075901</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-148327.5684075901</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-149001.0210075901</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-140923.7121075901</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-140717.4633075901</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-140845.0315075901</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-140494.5315075901</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-141820.6926075901</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-142550.9392075901</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-146073.0142075901</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-144361.1487075901</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-144361.1487075901</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-146130.6063075901</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-145335.1894075901</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-143102.8978408501</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-143352.8978408501</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-143288.8978408501</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-142383.8182408501</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-143447.0481408501</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-143011.4834408501</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-144514.6381408501</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-144295.9052408501</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-147506.2117408501</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-147475.1707408501</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-147707.7007408501</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-148154.7344408501</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-149001.9009408501</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-180174.1784525301</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-179660.6770525301</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-177909.3398525301</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-174507.5406525301</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-173882.7754525301</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-173884.2495525301</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-171720.9578525301</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-172920.7919525301</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-176981.5685525301</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-176984.5665525301</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-178665.6213525301</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-179045.2181525301</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-176987.1096525301</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-180584.2914525301</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-180590.1514525301</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-179624.9575525301</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-182195.4846525301</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-182529.3761525301</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-182865.1598525301</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-182966.4868525301</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-182726.9553525301</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-183295.12365253</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-186708.18615253</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-179493.28825253</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-180413.73285253</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-180030.74115253</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-180009.56785253</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-179973.85375253</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-179973.85375253</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-177326.99925253</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-177889.27515253</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-178656.48365253</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-178656.48365253</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-178100.71765253</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-177714.74805253</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-177824.29225253</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-177824.29225253</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-174335.31715253</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-180142.38215253</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-179921.92555253</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-172566.59145253</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-172366.45145253</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-170238.27205253</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-170378.27205253</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-170408.87965253</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-171088.97325253</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-171128.01105253</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-171194.52205253</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-172825.75615253</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-173625.50705253</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-174302.82315253</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-174387.41215253</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-174058.78725253</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-174058.58725253</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-174058.58725253</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-174038.58075253</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-174108.58075253</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-173917.52085253</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-172860.19935253</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-172260.19935253</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-171961.19935253</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-172265.42575253</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-169235.02735253</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-169608.67865253</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-169653.24395253</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-169335.39435253</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-169263.24555253</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-169657.61895253</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-166514.98515253</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-165072.21265253</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-165727.81125253</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-165487.34415253</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-164626.07505253</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-164626.07505253</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-164995.66135253</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-165027.25995253</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-165084.79305253</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-165055.46905253</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-165055.26905253</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-164283.10655253</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-164282.90655253</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-164448.88727763</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-164467.59057763</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-164467.59057763</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-164467.39057763</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-164467.19057763</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-164464.4459776299</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-163163.71687763</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-159523.2492776299</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-159525.2492776299</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-159799.4992776299</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-162048.38057763</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-161817.40507763</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-161671.29917763</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-164198.27897763</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-164201.98617763</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-165893.76257763</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-167173.62727763</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-167169.62727763</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-167169.62727763</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-167163.17997763</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-159583.56607763</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-156055.68377763</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-153436.01507763</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-154101.84197763</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-154071.84197763</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-154288.37197763</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-153877.67870463</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-153973.33240463</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-154326.89610463</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-154750.36940463</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-156235.44380463</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-157193.75930463</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-157992.84750463</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-157990.12430463</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-157991.96430463</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-157974.76210463</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-157973.76210463</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-157973.76210463</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-158381.63510463</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-158441.02790463</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-158301.30620463</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-158288.56230463</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-160703.47960463</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-160777.17010463</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-160094.00370463</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-159362.98960463</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-160512.95400463</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-160432.60330463</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-159941.55830463</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-160060.4134046299</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-159449.54290463</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-159355.4218796999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-159355.4218796999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-159516.4218796999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-158602.7575796999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-158436.9474796999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-158684.0463246699</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-159279.5229246699</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-159879.5229246699</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-160820.4299246699</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-162076.4299246699</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-161567.3954418399</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-161803.0904418399</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-161503.0904418399</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-164582.1159418399</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-164695.7509418399</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-166473.37489599</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-166473.37489599</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-168880.96024184</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-167761.20664184</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-167761.20664184</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-167462.20664184</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-167462.20664184</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-167462.20664184</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-167985.76374184</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-168658.34646138</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-170423.27686138</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-170395.98166138</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-170412.86166138</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-170411.86166138</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-170651.47528563</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-170534.17378563</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-171961.26618563</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-172144.26618563</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-172144.26618563</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-172435.80948563</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-175385.98538563</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-176946.31928563</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-176493.65998563</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-179790.59938563</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-180531.3607856299</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-180231.02078563</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-180472.9507856299</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-180272.9499856299</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-180749.7246856299</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-180680.4395993499</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-180980.4395993499</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-180579.8021993499</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-180424.1311993499</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-180419.52360889</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-179790.12374249</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-179790.12374249</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-181389.00354249</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-185155.73404249</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-182328.48594249</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-183112.35634249</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-183131.96744249</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-182580.61954249</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-184825.35974249</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-184825.35974249</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-186874.21974249</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-189785.88984249</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-189785.88984249</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-190453.91404249</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-176596.42689993</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-184917.50739993</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-185217.83875073</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-185230.23905073</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-185230.23905073</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-186294.97635073</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-190567.98565073</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-190748.99065073</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-190791.67195073</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-188492.90955073</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-188588.83245073</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-192576.58025073</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-192526.93295073</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-193376.94325073</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-199502.22885073</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-198432.18475073</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-203328.49605073</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-196052.19985073</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-196182.88935073</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-197183.85805073</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-197183.85805073</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-194870.18435073</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-185982.54285073</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-185161.91275073</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-184936.53045073</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-171471.90155073</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-176986.61885921</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-176986.61885921</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-177170.99535921</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-175093.32530312</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-175713.92410312</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-174630.16090312</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-173234.29030312</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-174328.78550312</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-174318.05010312</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-172421.33400312</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-172422.79310312</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-171260.20690312</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-171620.20690312</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-165102.44690312</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-164392.34340312</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-163897.25040312</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-163288.40670312</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-164478.69662488</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-166458.9320248801</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-168513.97592488</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-168603.67012488</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-169066.99862488</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-169066.99862488</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-163603.9072359201</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-164319.81813592</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-167117.08873592</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-166788.99272572</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-166188.99522572</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-167228.81202572</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-165928.21982572</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-165992.21982572</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-166303.19728429</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-166303.19728429</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-160035.34648429</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-156969.12598429</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-156762.39548429</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-156248.54928429</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-156331.31618429</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-143041.37743163</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-138320.91783163</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-127508.69676712</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-135032.10990242</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-140026.94240242</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-127495.56098106</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-120377.80788106</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-115571.66448106</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-113283.79178106</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-116427.39168106</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-110956.01038106</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-100742.93888106</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-104656.95803351</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-108002.85983649</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-110606.09650229</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-104986.07363252</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-105879.38243252</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-104280.10685382</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-96287.57245381997</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-97336.83864317997</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-95584.06372982997</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-95608.82882982997</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-95121.45532982997</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-101963.38362983</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-107790.25172983</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-99028.74721961997</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-98161.68294662997</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-93899.69654662997</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-93019.94904662998</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-93556.45064662998</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-90381.18074662998</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-91794.38854662998</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-93603.25345925998</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-122143.74012683</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-125512.62352683</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-136827.85681232</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-138094.630331</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-141858.371531</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-144631.896831</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-152197.214431</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-152024.535631</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-152467.924631</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-161893.675431</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-159402.449931</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-146331.588231</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-139699.598131</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-143346.810431</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-144824.602831</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-143023.26917114</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-147229.81827114</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-144595.00187114</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-144595.00187114</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-145541.02797114</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-147582.39337114</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-146768.55317114</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-146203.19967114</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-145538.32347114</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-149582.45927114</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-141222.57077114</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-140840.36337114</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-145108.40405987</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-141405.70995987</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-141405.70995987</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-142772.04195987</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-142149.29426892</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-143579.05876892</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-144535.93556892</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-143527.14116358</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-142892.99936358</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-143979.46236358</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-143979.46236358</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-147643.16466358</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-146931.1202635799</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-148905.33329519</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-152106.1530951899</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-153056.30589519</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-154866.2100951899</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-154247.56448441</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-155928.8197844099</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-155896.09558441</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-155919.21088441</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-155379.01008441</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-155379.01008441</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-148689.40488441</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-148668.40158441</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-148288.11568441</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-149438.06008441</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-148789.58228441</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-148789.58228441</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-148953.94098441</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-149057.99828441</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-149057.99828441</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-149378.93418441</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-149378.93418441</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-141325.25558441</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-142494.84618441</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-143172.18238441</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-143164.09078441</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-143470.7915844099</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-143470.7915844099</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-143470.7915844099</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-143382.8398844099</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-142105.7385844099</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-142618.6386844099</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-142868.4906844099</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-139659.7397844099</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-138848.6288844099</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-138723.9595841899</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-138733.8470841899</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-138733.8470841899</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-138739.0010841899</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-138706.7607841899</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-140107.3698841899</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-140107.3698841899</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-141650.8924841899</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-138918.8665361799</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-138918.8665361799</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-129109.5362730499</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-128819.5362730499</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-128819.5362730499</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-124304.9240730499</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-124231.9629730499</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-124231.9629730499</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-124068.5802299399</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-124079.1729299399</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-122811.8072299399</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-121185.5563299399</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-122223.0177299399</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-121655.7600299399</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-124267.5648299399</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-123319.6550299399</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-124156.4508299399</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-125291.9014299399</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-125255.7662299399</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-124940.1567041799</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-127891.4509041799</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-127798.5739041799</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-127805.3476041799</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-127805.3476041799</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-128122.2233041799</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-127690.8963041799</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-127202.9258041799</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-127202.9258041799</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-127202.9258041799</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-127452.6114041799</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-127452.6114041799</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-130304.8111443599</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-131176.96964436</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-136606.14564436</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-137904.56684436</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-137904.56684436</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-137723.36684436</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-139551.10273652</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-139551.10273652</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-136335.58613652</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-135261.75703652</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-137214.60643652</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-144235.64293652</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-149537.14533652</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-150443.35293652</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-149207.0726365199</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-150338.5761365199</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-148913.6412365199</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-149294.8182365199</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-149108.8113365199</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-150633.5629365199</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-150143.8138365199</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-149571.9138365199</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-143978.2540778399</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-144029.9054778399</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-144014.9070778399</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-143474.1888514499</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-143474.1888514499</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-144465.5923682299</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-144465.5923682299</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-144464.3023682299</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-145295.8178682299</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-145269.5312682299</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-145272.5312682299</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-144407.77536823</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-142667.4118682299</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-142451.80916823</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-142451.80916823</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-144742.4431682299</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-143316.66446823</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-143316.66446823</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-143589.74416823</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-138106.71106823</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-138147.85996823</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-138128.04866823</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-138818.72026823</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-139803.6043682299</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-139803.6043682299</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-140455.7425682299</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-140254.2795682299</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-150485.3291682299</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-150340.3641682299</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-149019.8875359799</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-149020.1575359799</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-145890.1640359799</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-134007.0874359799</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-135003.0706359799</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-133003.0706359799</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-132998.4534359799</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-133836.2625359799</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-134152.9558359799</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-129283.7806359799</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-128282.7623359799</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-127988.2601359799</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-129244.0281359799</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-114644.7933359799</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-118319.3392359799</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-122122.6561359799</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-125134.9843359799</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-125134.9843359799</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-125095.6443359799</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-125650.8943359799</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-125547.0311359799</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-125631.1978359799</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-125196.2137359799</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-124332.3467359799</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-123543.7116632599</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-123543.7116632599</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-123543.7116632599</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-123384.4981632599</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-121929.9458632599</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-121075.3638632599</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-118959.2920632599</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-118959.2920632599</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-119114.6841632599</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-119209.3721632599</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-119608.6869632599</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-119608.6869632599</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-119608.6869632599</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-121139.9865632599</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-122348.5507632599</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-122668.3500632599</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-123178.0592632599</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-122225.7554561199</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-122225.7554561199</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-130405.2221561199</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-130276.9067650499</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-130282.2916650499</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-130282.2916650499</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-130282.2916650499</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-130266.0409650499</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-129138.6430650499</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-129325.1463650499</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-129246.1771650499</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-129253.4201650499</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-129603.5576650499</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-120128.3553650499</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-120128.3553650499</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-120046.5103650499</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-120046.5103650499</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-120046.5103650499</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-120134.7440650499</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-120144.5463650499</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-120144.5463650499</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-120144.5463650499</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-120144.5463650499</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-120545.9287650499</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-120545.9287650499</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-120720.2755650499</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-120720.2755650499</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-121917.6970650499</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-121132.1616650499</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-119792.7079650499</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-121865.1841650499</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-121033.7344650499</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-121033.7344650499</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-123718.9443650499</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-123718.9443650499</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-123718.9443650499</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-125171.1633650499</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-126889.2941650499</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-122775.1364650499</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-122942.2699650499</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-122872.2089650499</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-122946.8581650499</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-124321.4716650499</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-124321.4716650499</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-120228.0810650499</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-120949.0972650499</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-123334.0981650499</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-123437.8981650499</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-123437.8981650499</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-123437.8981650499</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-123777.0044650499</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-119873.1670650499</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-120273.1670650499</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-120272.0093650499</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-120372.5852650499</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-125875.6949650499</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-123908.5701650499</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-123916.1801650499</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-123616.1801650499</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-125298.5134650499</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-125709.4020650499</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-112259.3352650499</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-116169.6484650499</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-107314.5359650499</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-107934.7160650499</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-110216.9115650499</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-110216.9115650499</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-110270.8497650499</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-115930.4095650499</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-115930.4095650499</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-119144.7856650499</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-119676.4587650499</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-119676.4587650499</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-119676.4587650499</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-118054.4742650499</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-118054.4742650499</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-118568.6050650499</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-116361.4430650499</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-116089.9430650499</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-116089.9430650499</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-116114.8090650499</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-116214.6008650499</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-116214.6008650499</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-115552.2726650499</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-115552.2726650499</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-113755.5039650499</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-113755.5039650499</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-113755.5039650499</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-114921.6024650499</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-114921.6024650499</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-113479.9714497099</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-113532.6305497099</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-113531.7759497099</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-113530.7759497099</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-113537.7759497099</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-109670.7717497099</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-109670.7717497099</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-113939.8848497099</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-110061.3152497099</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-106014.7481497099</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-106014.7481497099</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-106832.0661497099</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-106832.0661497099</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-105781.5661497099</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-105781.5661497099</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-105414.1571497099</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-105414.1571497099</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-105238.0379716299</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-105369.0037716299</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-104377.4357720899</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-109770.6427720899</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-109770.6427720899</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-109634.9268720899</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-109616.3101720899</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-109858.7168720899</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-110258.2090720899</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-110820.2090720899</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-110820.0444720899</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-112689.5549720899</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-112689.5549720899</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-112648.1419720899</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-112082.8005720899</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-113717.6703720899</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-113697.6703720899</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-113751.4934720899</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-113751.4934720899</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-113419.9842720899</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-113862.3802720899</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-113781.8942720899</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-112801.0684720899</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-104327.2850720899</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-105071.8516720899</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-104693.2030720899</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-96692.05287208987</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-95392.41663359987</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-96269.67863359988</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-96269.67863359988</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-96385.69313359988</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-96343.17183359989</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-96756.61563359988</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-96756.61563359988</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-99373.03433359988</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-93293.98773359988</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-93490.09135177988</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-93776.31230819988</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-93771.89460819987</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-93771.89460819987</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-94459.51250819987</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-94443.73750819988</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-94320.67690819988</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-93897.56810819988</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-95640.47340819988</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-95640.47340819988</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-96558.32870819987</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-96558.32870819987</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-96474.06527468987</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-97808.32827468988</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-97807.32827468988</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-98501.32827468988</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-98501.32827468988</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-98245.13787468987</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-99142.51187468987</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-99890.05917468987</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-99785.45737468987</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-99785.45737468987</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-99785.45737468987</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-99785.45737468987</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-99746.65344864987</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-99746.65344864987</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-101159.6595486499</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-101186.7558486499</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-100536.7680486499</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-102716.3690486499</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-102284.7318486499</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-102388.9318486499</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-102688.9318486499</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>-101994.1868486499</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>-102059.5528486499</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>-106192.3856486499</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-107777.3553486499</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>-107829.2253486499</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-107405.6297486499</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-107405.6297486499</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-107183.3429486499</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>-107212.4029486499</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-107329.1723486499</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-103954.5475486499</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-104275.9675486499</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-104275.9675486499</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-104045.1013486499</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-103788.2387486499</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-103734.3057486499</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-101106.3113486499</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-95596.61958713987</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-101624.5417871399</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-101624.5418256299</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-108717.3084256299</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-102177.3473256299</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-103138.7569256299</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-105779.6845256299</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-105025.7245256299</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-105640.3431122399</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-106009.9373122399</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-106095.8077122399</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-108830.8184122399</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-108718.5557122399</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-107233.6419122399</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-107233.6419122399</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-114196.2284122399</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-117339.2213122399</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-123364.4657122399</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-134434.9800122399</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-158786.9045122399</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-159889.8260122398</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-159147.3131122398</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-169705.6485122399</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-169705.6485122399</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-168524.8214122399</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-168524.8214122399</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-173848.8556122399</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-176281.9209122398</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-176281.6209122399</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-176679.2220122399</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-178391.6844122398</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-178279.7579385799</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-177200.2823385799</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-177200.2823385799</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-176960.9794385798</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-176381.2271385799</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-177068.2271385799</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-177068.2271385799</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-177067.2271385799</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-168409.9241385799</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-168597.4235385799</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-167577.7934385799</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-168669.8511385799</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-168669.8511385799</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-168788.4813385799</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-168788.4813385799</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-169491.2437385799</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-169271.2177385799</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-168536.9978385799</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-167431.5384385799</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-167114.2773385799</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-168425.2991385799</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-168417.2991385799</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-168454.7630385799</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-168450.0907385799</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-169114.7895385799</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-169114.7895385799</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-169113.7895385799</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-169113.9895385799</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-178581.5831385799</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-176173.2470385799</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-176439.2218385799</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-176439.2218385799</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-190184.6258385799</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-192330.0799385799</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-191725.8719385799</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-193726.6399385799</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>-193726.6399385799</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>-194518.9990385799</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>-194518.9990385799</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-195068.2064385799</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>-196743.8091385799</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>-252680.8997385799</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-299467.0451385799</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-375834.8452385799</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-375834.8452385799</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-392138.2914301799</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-405123.6464301799</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-380340.07063018</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-387206.6939301799</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-442561.3171931599</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>-453714.4380931599</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>-436176.4494931599</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>-442428.3440931599</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34474,11 +34474,17 @@
         <v>-505133.7250970899</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>4065</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34507,11 +34513,17 @@
         <v>-532327.3210970899</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>4031</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34540,11 +34552,17 @@
         <v>-494876.4347970899</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>4005</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34573,11 +34591,17 @@
         <v>-476514.9878970899</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>4033</v>
+      </c>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34606,11 +34630,17 @@
         <v>-485062.5199118299</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>4036</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34647,7 +34677,7 @@
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1038" t="n">
@@ -34873,11 +34903,9 @@
         <v>-422666.0386897399</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>4070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -34951,11 +34979,9 @@
         <v>-419118.15978974</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>4070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -34990,11 +35016,9 @@
         <v>-419316.80878974</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>4072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35029,11 +35053,9 @@
         <v>-423592.17308974</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1048" t="n">
-        <v>4066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35107,11 +35129,9 @@
         <v>-418560.49558974</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>4066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -35146,9 +35166,11 @@
         <v>-418839.04858974</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>4075</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35553,18 +35575,16 @@
         <v>-423644.83467428</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1062" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1062" t="inlineStr"/>
       <c r="M1062" t="inlineStr"/>
     </row>
     <row r="1063">
@@ -35590,15 +35610,11 @@
         <v>-432957.38580382</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35627,15 +35643,11 @@
         <v>-434999.21740382</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35664,15 +35676,11 @@
         <v>-434999.21740382</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35701,15 +35709,11 @@
         <v>-434656.65545261</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35738,15 +35742,11 @@
         <v>-434698.72865261</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35775,15 +35775,11 @@
         <v>-428892.31863987</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35812,15 +35808,11 @@
         <v>-428892.31863987</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35849,15 +35841,11 @@
         <v>-428227.28563033</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35886,15 +35874,11 @@
         <v>-449617.59099275</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35923,15 +35907,11 @@
         <v>-451295.78939275</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35960,15 +35940,11 @@
         <v>-442579.80809275</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35997,15 +35973,11 @@
         <v>-447761.72719275</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36034,15 +36006,11 @@
         <v>-451155.84849275</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36071,15 +36039,11 @@
         <v>-451155.84849275</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36108,15 +36072,11 @@
         <v>-448968.22349275</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36145,15 +36105,11 @@
         <v>-449282.0110927499</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36182,15 +36138,11 @@
         <v>-450467.63620136</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36219,15 +36171,11 @@
         <v>-449247.81860136</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36256,15 +36204,11 @@
         <v>-449627.38870136</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36293,15 +36237,11 @@
         <v>-454138.18660136</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36330,15 +36270,11 @@
         <v>-458814.04030136</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36367,15 +36303,11 @@
         <v>-467379.70110136</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36404,15 +36336,11 @@
         <v>-468795.4679136</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36441,15 +36369,11 @@
         <v>-474270.9418136</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36482,11 +36406,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36519,11 +36439,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36556,11 +36472,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36593,11 +36505,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36630,11 +36538,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36667,11 +36571,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36700,17 +36600,11 @@
         <v>-455962.3397099799</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>4061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36739,17 +36633,11 @@
         <v>-454303.5849645999</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>4072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36778,17 +36666,11 @@
         <v>-454659.8878645999</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1095" t="n">
-        <v>4077</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36817,17 +36699,11 @@
         <v>-435953.8267645999</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>4071</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36856,15 +36732,11 @@
         <v>-437178.6484645999</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36893,15 +36765,11 @@
         <v>-437507.6608645999</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36930,15 +36798,11 @@
         <v>-447955.2332645999</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36967,17 +36831,11 @@
         <v>-440745.8051645999</v>
       </c>
       <c r="H1100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1100" t="n">
-        <v>4047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37006,17 +36864,11 @@
         <v>-445263.4889645999</v>
       </c>
       <c r="H1101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1101" t="n">
-        <v>4058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37045,17 +36897,11 @@
         <v>-432810.3239645999</v>
       </c>
       <c r="H1102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1102" t="n">
-        <v>4039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37084,17 +36930,11 @@
         <v>-425997.2951327199</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1103" t="n">
-        <v>4048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37123,17 +36963,11 @@
         <v>-439825.1150327199</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1104" t="n">
-        <v>4064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37162,17 +36996,11 @@
         <v>-443304.2415634499</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>4053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37201,17 +37029,11 @@
         <v>-436854.5867634499</v>
       </c>
       <c r="H1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>4035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37240,17 +37062,11 @@
         <v>-433601.7936634499</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1107" t="n">
-        <v>4040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37279,17 +37095,11 @@
         <v>-437131.0328634499</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1108" t="n">
-        <v>4043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37318,17 +37128,11 @@
         <v>-432140.2863634499</v>
       </c>
       <c r="H1109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1109" t="n">
-        <v>4037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37365,7 +37169,7 @@
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1110" t="n">
@@ -37396,11 +37200,9 @@
         <v>-429138.1102634498</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>4060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
@@ -37591,11 +37393,9 @@
         <v>-425787.7479734798</v>
       </c>
       <c r="H1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1116" t="n">
-        <v>4064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
@@ -37630,11 +37430,9 @@
         <v>-427983.3875734798</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1117" t="n">
-        <v>4071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
@@ -37669,11 +37467,9 @@
         <v>-423473.6636734798</v>
       </c>
       <c r="H1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1118" t="n">
-        <v>4068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
@@ -38189,11 +37985,9 @@
         <v>-422777.7499458698</v>
       </c>
       <c r="H1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1132" t="n">
-        <v>4063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
@@ -38228,11 +38022,9 @@
         <v>-428458.7811458698</v>
       </c>
       <c r="H1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>4055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -38423,9 +38215,11 @@
         <v>-429671.1971240598</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>4062</v>
+      </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38460,9 +38254,11 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>4062</v>
+      </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
@@ -38497,11 +38293,9 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1140" t="n">
-        <v>4060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38536,11 +38330,9 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>4060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38614,11 +38406,9 @@
         <v>-432824.0274565699</v>
       </c>
       <c r="H1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1143" t="n">
-        <v>4055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38653,11 +38443,9 @@
         <v>-433392.2474565699</v>
       </c>
       <c r="H1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>4062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38809,11 +38597,9 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>4081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
@@ -38848,20 +38634,16 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>4075</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1149" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1149" t="inlineStr"/>
       <c r="M1149" t="inlineStr"/>
     </row>
     <row r="1150">
@@ -38887,17 +38669,11 @@
         <v>-432684.1271946598</v>
       </c>
       <c r="H1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1150" t="n">
-        <v>4075</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38926,17 +38702,11 @@
         <v>-431029.3245946598</v>
       </c>
       <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>4070</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38965,17 +38735,11 @@
         <v>-432210.1078946599</v>
       </c>
       <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>4078</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39004,17 +38768,11 @@
         <v>-426841.6221946598</v>
       </c>
       <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>4057</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39048,12 +38806,10 @@
       <c r="I1154" t="n">
         <v>4063</v>
       </c>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1154" t="n">
+        <v>4063</v>
+      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39087,10 +38843,12 @@
       <c r="I1155" t="n">
         <v>4059</v>
       </c>
-      <c r="J1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>4063</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1155" t="n">
@@ -39121,12 +38879,12 @@
         <v>-426052.8457946599</v>
       </c>
       <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>4059</v>
-      </c>
-      <c r="J1156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>4063</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39165,7 +38923,9 @@
       <c r="I1157" t="n">
         <v>4063</v>
       </c>
-      <c r="J1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>4063</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39204,7 +38964,9 @@
       <c r="I1158" t="n">
         <v>4063</v>
       </c>
-      <c r="J1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>4063</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39238,12 +39000,12 @@
         <v>-426043.2008946599</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>4081</v>
-      </c>
-      <c r="J1159" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>4063</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39255,6 +39017,6 @@
       <c r="M1159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest EOS.xlsx
+++ b/BackTest/2020-01-20 BackTest EOS.xlsx
@@ -946,7 +946,7 @@
         <v>-116833.9601451</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-114781.6063451001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-114984.7072451001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-144306.20290416</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-142961.19170416</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-144047.0045041601</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-152958.9936041601</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-131353.3881041601</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-124283.52280416</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-119498.42220416</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-124252.59900416</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-124252.59900416</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-128000.28990416</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-128000.28990416</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-131286.4893041601</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-129264.3798041601</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-134632.2926041601</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-137293.3565041601</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-136075.5699041601</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-135350.2973041601</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-131867.5298041601</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-134347.4866041601</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-131933.7483041601</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-134688.7361041601</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-141035.7712041601</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-150559.8152075901</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-138682.7130075901</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-140342.6072075901</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-140923.7121075901</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-140717.4633075901</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-140845.0315075901</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-140494.5315075901</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-141820.6926075901</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-142550.9392075901</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-146073.0142075901</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-144361.1487075901</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-144361.1487075901</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-146130.6063075901</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-145335.1894075901</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-142565.8993408501</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-142511.8022408501</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-143447.0481408501</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-143011.4834408501</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-144514.6381408501</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-143721.2735408501</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-143721.2735408501</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-143772.8397408501</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-143772.8397408501</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-146697.6771408501</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-146697.6771408501</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-146360.6771408501</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-143408.5167408501</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-143433.6400408501</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-144058.4052408501</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-176655.1511408501</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-176655.1511408501</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-176897.1144408501</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-176783.6823408501</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-181477.0868408501</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-180094.4625525301</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-180094.4625525301</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-180174.1784525301</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-179660.6770525301</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-177909.3398525301</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-174507.5406525301</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-173882.7754525301</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-173884.2495525301</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-171720.9578525301</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-172920.7919525301</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-176981.5685525301</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-176984.5665525301</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-178665.6213525301</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-179045.2181525301</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-176987.1096525301</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-180584.2914525301</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-180590.1514525301</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-179624.9575525301</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-182195.4846525301</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-182529.3761525301</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-182865.1598525301</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-182966.4868525301</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-182726.9553525301</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-183295.12365253</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-186708.18615253</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-179493.28825253</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-180413.73285253</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-180030.74115253</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-180009.56785253</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-179973.85375253</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-179973.85375253</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-177326.99925253</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-177889.27515253</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-178656.48365253</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-178656.48365253</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-178100.71765253</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-177714.74805253</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-177824.29225253</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-177824.29225253</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-174335.31715253</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-180142.38215253</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-179921.92555253</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-172566.59145253</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-172366.45145253</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-170238.27205253</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-170378.27205253</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-170408.87965253</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-171088.97325253</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-171128.01105253</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-171194.52205253</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-172825.75615253</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-173625.50705253</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-174302.82315253</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-174387.41215253</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-174058.78725253</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-174058.58725253</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-174058.58725253</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-174038.58075253</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-174108.58075253</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-173917.52085253</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-172860.19935253</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-172260.19935253</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-171961.19935253</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-172265.42575253</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-169235.02735253</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-169608.67865253</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-169653.24395253</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-169335.39435253</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-169263.24555253</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-169657.61895253</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-166514.98515253</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-190567.98565073</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-190748.99065073</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-190791.67195073</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-188492.90955073</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-188588.83245073</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-192576.58025073</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-192526.93295073</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-193376.94325073</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-199502.22885073</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-198432.18475073</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-203328.49605073</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-196052.19985073</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-196182.88935073</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-197183.85805073</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-197183.85805073</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-194870.18435073</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-185982.54285073</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-185161.91275073</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-184936.53045073</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-171471.90155073</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-176986.61885921</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-176986.61885921</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-177170.99535921</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-175093.32530312</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-175713.92410312</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-174630.16090312</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-173234.29030312</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-174328.78550312</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-174318.05010312</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-172421.33400312</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-172422.79310312</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-171260.20690312</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-171620.20690312</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-165102.44690312</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-164392.34340312</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-163897.25040312</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-163288.40670312</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-164478.69662488</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-166458.9320248801</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-168513.97592488</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-168603.67012488</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-169066.99862488</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-169066.99862488</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-163603.9072359201</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-164319.81813592</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-167117.08873592</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-166788.99272572</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-166188.99522572</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-167228.81202572</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-165928.21982572</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-165992.21982572</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-166303.19728429</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-166303.19728429</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-160035.34648429</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-156969.12598429</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-156762.39548429</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-156248.54928429</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-156331.31618429</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-143041.37743163</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-138320.91783163</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-127508.69676712</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-135032.10990242</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-140026.94240242</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-134645.76750242</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-113283.79178106</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-116427.39168106</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-110956.01038106</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-100742.93888106</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-104656.95803351</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-108002.85983649</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-110606.09650229</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-104986.07363252</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-105879.38243252</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-104280.10685382</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-96287.57245381997</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-97336.83864317997</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-95584.06372982997</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-95608.82882982997</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-95121.45532982997</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-101963.38362983</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-107790.25172983</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-99028.74721961997</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-98161.68294662997</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-93899.69654662997</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-93019.94904662998</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-93556.45064662998</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-90381.18074662998</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-91794.38854662998</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-93603.25345925998</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-96891.19285925999</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-100218.94925926</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-98307.33785925999</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-102230.78545926</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-102006.81495926</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-105939.98485926</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-108840.21205926</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-111030.75435926</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-117609.55395926</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-113077.95535926</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-119529.20885926</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-114035.52792683</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-118400.32442683</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-122143.74012683</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-445566.4584301799</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-405123.6464301799</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-380340.07063018</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-387206.6939301799</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-442561.3171931599</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>-453714.4380931599</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>-436176.4494931599</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>-442428.3440931599</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34474,17 +34474,11 @@
         <v>-505133.7250970899</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>4065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34513,17 +34507,11 @@
         <v>-532327.3210970899</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>4031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34552,17 +34540,11 @@
         <v>-494876.4347970899</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>4005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34591,17 +34573,11 @@
         <v>-476514.9878970899</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>4033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34630,17 +34606,11 @@
         <v>-485062.5199118299</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1037" t="n">
-        <v>4036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34669,17 +34639,11 @@
         <v>-447087.7830118299</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1038" t="n">
-        <v>4009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34716,7 +34680,7 @@
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1039" t="n">
@@ -34825,11 +34789,9 @@
         <v>-431656.9517897399</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>4074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -34903,9 +34865,11 @@
         <v>-422666.0386897399</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>4070</v>
+      </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35090,11 +35054,9 @@
         <v>-421744.29538974</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>4065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -35166,11 +35128,9 @@
         <v>-418839.04858974</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>4075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35575,16 +35535,18 @@
         <v>-423644.83467428</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1062" t="inlineStr"/>
+      <c r="L1062" t="n">
+        <v>1</v>
+      </c>
       <c r="M1062" t="inlineStr"/>
     </row>
     <row r="1063">
@@ -35610,11 +35572,15 @@
         <v>-432957.38580382</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35643,11 +35609,15 @@
         <v>-434999.21740382</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35676,11 +35646,15 @@
         <v>-434999.21740382</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35709,11 +35683,15 @@
         <v>-434656.65545261</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35742,11 +35720,15 @@
         <v>-434698.72865261</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35775,11 +35757,15 @@
         <v>-428892.31863987</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35808,11 +35794,15 @@
         <v>-428892.31863987</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35841,11 +35831,15 @@
         <v>-428227.28563033</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35874,11 +35868,15 @@
         <v>-449617.59099275</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35907,11 +35905,15 @@
         <v>-451295.78939275</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35940,11 +35942,15 @@
         <v>-442579.80809275</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35973,11 +35979,15 @@
         <v>-447761.72719275</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36006,11 +36016,15 @@
         <v>-451155.84849275</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36039,11 +36053,15 @@
         <v>-451155.84849275</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36072,11 +36090,15 @@
         <v>-448968.22349275</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36105,11 +36127,15 @@
         <v>-449282.0110927499</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36138,11 +36164,15 @@
         <v>-450467.63620136</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36171,11 +36201,15 @@
         <v>-449247.81860136</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36204,11 +36238,15 @@
         <v>-449627.38870136</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36237,11 +36275,15 @@
         <v>-454138.18660136</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36270,11 +36312,15 @@
         <v>-458814.04030136</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36303,11 +36349,17 @@
         <v>-467379.70110136</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>4080</v>
+      </c>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36336,11 +36388,17 @@
         <v>-468795.4679136</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>4074</v>
+      </c>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36369,11 +36427,15 @@
         <v>-474270.9418136</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36402,11 +36464,17 @@
         <v>-470811.6525136</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>4065</v>
+      </c>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36435,11 +36503,17 @@
         <v>-454935.7023135999</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>4068</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36472,7 +36546,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36505,7 +36583,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36538,7 +36620,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36567,11 +36653,17 @@
         <v>-462360.4590203</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>4061</v>
+      </c>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36600,11 +36692,17 @@
         <v>-455962.3397099799</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>4061</v>
+      </c>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36633,11 +36731,17 @@
         <v>-454303.5849645999</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>4072</v>
+      </c>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36666,11 +36770,17 @@
         <v>-454659.8878645999</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>4077</v>
+      </c>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36699,11 +36809,17 @@
         <v>-435953.8267645999</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>4071</v>
+      </c>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36732,11 +36848,15 @@
         <v>-437178.6484645999</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36765,11 +36885,15 @@
         <v>-437507.6608645999</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36798,11 +36922,17 @@
         <v>-447955.2332645999</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>4065</v>
+      </c>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36835,7 +36965,11 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36864,11 +36998,17 @@
         <v>-445263.4889645999</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>4058</v>
+      </c>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -36897,11 +37037,17 @@
         <v>-432810.3239645999</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>4039</v>
+      </c>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -36930,11 +37076,17 @@
         <v>-425997.2951327199</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>4048</v>
+      </c>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -36963,11 +37115,17 @@
         <v>-439825.1150327199</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>4064</v>
+      </c>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37000,7 +37158,11 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37033,7 +37195,11 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37062,11 +37228,17 @@
         <v>-433601.7936634499</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>4040</v>
+      </c>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37095,11 +37267,17 @@
         <v>-437131.0328634499</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>4043</v>
+      </c>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37128,11 +37306,17 @@
         <v>-432140.2863634499</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>4037</v>
+      </c>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37169,7 +37353,7 @@
       <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1110" t="n">
@@ -37200,9 +37384,11 @@
         <v>-429138.1102634498</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>4060</v>
+      </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
@@ -37393,9 +37579,11 @@
         <v>-425787.7479734798</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>4064</v>
+      </c>
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
@@ -37430,9 +37618,11 @@
         <v>-427983.3875734798</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>4071</v>
+      </c>
       <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
@@ -37467,9 +37657,11 @@
         <v>-423473.6636734798</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>4068</v>
+      </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
@@ -37504,9 +37696,11 @@
         <v>-420059.5715734798</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>4077</v>
+      </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37541,9 +37735,11 @@
         <v>-417037.1371734798</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>4079</v>
+      </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
@@ -37837,9 +38033,11 @@
         <v>-417772.8524636397</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>4078</v>
+      </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -37874,9 +38072,11 @@
         <v>-420649.1358636398</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>4070</v>
+      </c>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
@@ -37911,9 +38111,11 @@
         <v>-423548.6964636398</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>4065</v>
+      </c>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
@@ -37948,9 +38150,11 @@
         <v>-422086.9481458698</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>4057</v>
+      </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -37985,9 +38189,11 @@
         <v>-422777.7499458698</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>4063</v>
+      </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
@@ -38022,9 +38228,11 @@
         <v>-428458.7811458698</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>4055</v>
+      </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -38293,9 +38501,11 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>4060</v>
+      </c>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38330,9 +38540,11 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>4060</v>
+      </c>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38406,9 +38618,11 @@
         <v>-432824.0274565699</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>4055</v>
+      </c>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38443,9 +38657,11 @@
         <v>-433392.2474565699</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>4062</v>
+      </c>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38597,9 +38813,11 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>4081</v>
+      </c>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
@@ -38634,16 +38852,20 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>4075</v>
+      </c>
       <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1149" t="inlineStr"/>
+      <c r="L1149" t="n">
+        <v>1</v>
+      </c>
       <c r="M1149" t="inlineStr"/>
     </row>
     <row r="1150">
@@ -38669,11 +38891,17 @@
         <v>-432684.1271946598</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>4075</v>
+      </c>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38702,11 +38930,17 @@
         <v>-431029.3245946598</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>4070</v>
+      </c>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38735,11 +38969,17 @@
         <v>-432210.1078946599</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>4078</v>
+      </c>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38768,11 +39008,17 @@
         <v>-426841.6221946598</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>4057</v>
+      </c>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38806,10 +39052,12 @@
       <c r="I1154" t="n">
         <v>4063</v>
       </c>
-      <c r="J1154" t="n">
-        <v>4063</v>
-      </c>
-      <c r="K1154" t="inlineStr"/>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38843,12 +39091,10 @@
       <c r="I1155" t="n">
         <v>4059</v>
       </c>
-      <c r="J1155" t="n">
-        <v>4063</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1155" t="n">
@@ -38879,12 +39125,12 @@
         <v>-426052.8457946599</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>4063</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>4059</v>
+      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38923,9 +39169,7 @@
       <c r="I1157" t="n">
         <v>4063</v>
       </c>
-      <c r="J1157" t="n">
-        <v>4063</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38964,9 +39208,7 @@
       <c r="I1158" t="n">
         <v>4063</v>
       </c>
-      <c r="J1158" t="n">
-        <v>4063</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39000,12 +39242,12 @@
         <v>-426043.2008946599</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>4063</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>4081</v>
+      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
